--- a/TestData/LV_TMTT0039383_VerifyTheFunctionalityOfTimeRecordManagerForFRStandardUserFromFRTimeTrackingGroupsOntheSFLightningView.xlsx
+++ b/TestData/LV_TMTT0039383_VerifyTheFunctionalityOfTimeRecordManagerForFRStandardUserFromFRTimeTrackingGroupsOntheSFLightningView.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F711409A-5B54-4724-8E79-496C81E81E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F2B920-E66F-48F0-83CF-AA0BFD3DF0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="5" r:id="rId1"/>
@@ -119,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -187,11 +187,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -199,6 +212,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,19 +495,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -503,8 +517,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -528,14 +542,14 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -553,17 +567,17 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -581,17 +595,17 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -605,7 +619,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -626,13 +640,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D50B479-0CB0-411B-B95E-B0FCA74706BC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
